--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keert\IdeaProjects\AutomationPractice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4A3E3E-E6AE-47CA-B69C-3A7EF342454C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1B48AC-4D35-4D5C-8430-D20455068D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4CF62B2F-94F4-4746-B0DA-68504EE0CA04}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>keerthanna</t>
   </si>
@@ -121,13 +121,19 @@
   </si>
   <si>
     <t>MOBILENUMBER</t>
+  </si>
+  <si>
+    <t>keerthanna21</t>
+  </si>
+  <si>
+    <t>600123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +151,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -491,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE35DCC-5466-455B-8C86-5E071C2B0B37}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,11 +611,60 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{BA2D5FC0-DC1D-4ABF-9F41-681F16D15819}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{6168B21B-3FBB-4068-B0B0-03DAC6CB4A4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>